--- a/Recursos/Excelvacio/Reporte_Dam.xlsx
+++ b/Recursos/Excelvacio/Reporte_Dam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BOT-LIQUIDACION\BotUpdateCanal\Recursos\Excelvacio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B95B8BA-EFD7-47DE-AC8C-614272350866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD68FA4C-90EA-4DFD-8245-086CA388F89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="11">
   <si>
     <t>FECHA/HORA PROCESO</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>BOOKING</t>
-  </si>
-  <si>
-    <t>DESCARGADO</t>
   </si>
   <si>
     <t>ADUANA</t>
@@ -448,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU67"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K1" sqref="K1:BB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,7 +464,7 @@
     <col min="10" max="10" width="22.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,36 +472,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -513,12 +510,12 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -527,12 +524,12 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -541,12 +538,12 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -555,12 +552,12 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -569,12 +566,12 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -583,12 +580,12 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -597,12 +594,12 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -611,12 +608,12 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -625,12 +622,12 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -639,12 +636,12 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -652,16 +649,13 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="AU12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -670,12 +664,12 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -684,12 +678,12 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -698,12 +692,12 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -717,7 +711,7 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -731,7 +725,7 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -745,7 +739,7 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -759,7 +753,7 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -773,7 +767,7 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -787,7 +781,7 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -801,7 +795,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -815,7 +809,7 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -829,7 +823,7 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -843,7 +837,7 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -857,7 +851,7 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -871,7 +865,7 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -885,7 +879,7 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -899,7 +893,7 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -913,7 +907,7 @@
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -927,7 +921,7 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -941,7 +935,7 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -955,7 +949,7 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -969,7 +963,7 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -983,7 +977,7 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -997,7 +991,7 @@
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1011,7 +1005,7 @@
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -1025,7 +1019,7 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1039,7 +1033,7 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1053,7 +1047,7 @@
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1067,7 +1061,7 @@
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1081,7 +1075,7 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -1095,7 +1089,7 @@
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1109,7 +1103,7 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -1123,7 +1117,7 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -1137,7 +1131,7 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -1151,7 +1145,7 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -1165,7 +1159,7 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -1179,7 +1173,7 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -1193,7 +1187,7 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -1207,7 +1201,7 @@
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -1221,7 +1215,7 @@
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -1235,7 +1229,7 @@
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -1249,7 +1243,7 @@
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -1263,7 +1257,7 @@
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -1277,7 +1271,7 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -1291,7 +1285,7 @@
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -1305,7 +1299,7 @@
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -1319,7 +1313,7 @@
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -1333,7 +1327,7 @@
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -1347,7 +1341,7 @@
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -1361,7 +1355,7 @@
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -1375,7 +1369,7 @@
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -1389,7 +1383,7 @@
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -1403,7 +1397,7 @@
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -1417,7 +1411,7 @@
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
